--- a/NewsScraping/article.xlsx
+++ b/NewsScraping/article.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,170 +424,220 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>"추석 연휴 방역수칙 준수가 전국적 확산 여부 결정"</t>
+          <t>“추석 선물 모바일상품권”…스미싱입니다, 주의요망!</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://imnews.imbc.com/news/2021/society/article/6300170_34873.html</t>
+          <t>https://www.hani.co.kr/arti/economy/finance/1011348.html</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>MBC</t>
+          <t>한겨레</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F028%2F2021%2F09%2F12%2F2560151.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>올해도 ‘비대면 추석’… 백화점 선물세트 매출 증가</t>
+          <t>"추석 연휴 방역수칙 준수가 전국적 확산 여부 결정"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://biz.chosun.com/distribution/channel/2021/09/12/W72ZWBIR75HZ3MKZ5CPUIQYYE4/?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</t>
+          <t>https://imnews.imbc.com/news/2021/society/article/6300170_34873.html</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>조선비즈</t>
+          <t>MBC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F214%2F2021%2F09%2F12%2F1147692.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[포커스] 추석 택배 확인·재난지원금 사칭 '스미싱' 주의보</t>
+          <t>LH, 저소득 1만가구에 추석 지원금 10억 전달</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://news.tvchosun.com/site/data/html_dir/2021/09/12/2021091290036.html</t>
+          <t>http://www.fnnews.com/news/202109111440093785</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TV조선</t>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F014%2F2021%2F09%2F12%2F4707251.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LH, 저소득 1만가구에 추석 지원금 10억 전달</t>
+          <t>추석 앞두고 전통시장 인근 도로 '2시간 주차' 허용</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.fnnews.com/news/202109111440093785</t>
+          <t>https://www.ytn.co.kr/_ln/0102_202109121259514942</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스</t>
+          <t>YTN</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F052%2F2021%2F09%2F12%2F1639363.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>추석 연휴 지나면 전기·도시가스 요금 오른다…"요금 억제 한계"</t>
+          <t>환경부, 13~26일 추석 연휴 환경오염 특별 단속</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/society/article/2021091288297</t>
+          <t>http://www.newsis.com/view/?id=NISX20210911_0001580232&amp;cID=10201&amp;pID=10200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>뉴시스</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F003%2F2021%2F09%2F12%2F10715658.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>기업 10곳 중 7곳, 추석 5일 쉰다…62% 상여금 지급</t>
+          <t>우리금융·예보, 취약계층에 추석맞이 ‘행복상자’ 전달</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://view.asiae.co.kr/article/2021091210453164640</t>
+          <t>https://www.news1.kr/articles/?4431208</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>아시아경제</t>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F421%2F2021%2F09%2F12%2F5597847.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>추석 앞두고 전통시장 인근 도로 '2시간 주차' 허용</t>
+          <t>추석 있는 달 일평균 3.22명 산재사망…'중대재해 위험경보' 발령</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.ytn.co.kr/_ln/0102_202109121259514942</t>
+          <t>https://view.asiae.co.kr/article/2021091117270385069</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>YTN</t>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F277%2F2021%2F09%2F12%2F4968042.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>“주소 바꿔주세요”…추석 선물 배송 사칭 스미싱 주의보</t>
+          <t>전국민 70% 접종까지 280만명 남았다…추석연휴 직전 달성할 듯</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/article/all/20210912/109213606/1</t>
+          <t>https://www.news1.kr/articles/?4431909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F421%2F2021%2F09%2F12%2F5598034.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>환경부, 13~26일 추석 연휴 환경오염 특별 단속</t>
+          <t>올해도 ‘비대면 추석’… 백화점 선물세트 매출 증가</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.newsis.com/view/?id=NISX20210911_0001580232&amp;cID=10201&amp;pID=10200</t>
+          <t>https://biz.chosun.com/distribution/channel/2021/09/12/W72ZWBIR75HZ3MKZ5CPUIQYYE4/?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>뉴시스</t>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F366%2F2021%2F09%2F12%2F760764.jpg&amp;type=ofullfill264_180_gray&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>우리금융·예보, 취약계층에 추석맞이 ‘행복상자’ 전달</t>
+          <t>추석 연휴 지나면 전기·도시가스 요금 오른다…"요금 억제 한계"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.news1.kr/articles/?4431208</t>
+          <t>https://www.hankyung.com/society/article/2021091288297</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>뉴스1</t>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F015%2F2021%2F09%2F12%2F4603726.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true</t>
         </is>
       </c>
     </row>
